--- a/AppendixC/sherpa_families.xlsx
+++ b/AppendixC/sherpa_families.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/angelica/Books/O'Reilly - AI with Excel/Learning-Generative-AI-Tools-for-Excel/AppendixC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116A2589-8728-C74F-8602-912D782EEBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FF26F5-629C-414E-AD3F-2867E34D5DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -166,9 +166,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>yak; lama</t>
-  </si>
-  <si>
     <t>Porter support</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>Tourism services</t>
+  </si>
+  <si>
+    <t>yak; llama</t>
   </si>
 </sst>
 </file>
@@ -889,7 +889,7 @@
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
-      <we:containsCustomFunctions val="1"/>
+      <we:containsCustomFunctions/>
     </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
@@ -906,19 +906,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.1640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="23.33203125" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
@@ -1079,7 +1079,7 @@
         <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="K4" t="s">
         <v>20</v>
@@ -1088,15 +1088,15 @@
         <v>4</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
@@ -1105,39 +1105,39 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <v>3920</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
       </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>44</v>
-      </c>
-      <c r="K5" t="s">
-        <v>45</v>
       </c>
       <c r="L5">
         <v>3</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>26</v>
@@ -1146,54 +1146,54 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6">
         <v>4010</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L6">
         <v>5</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
       </c>
       <c r="F7">
         <v>3890</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>19</v>
@@ -1216,34 +1216,34 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>59</v>
       </c>
       <c r="F8">
         <v>4100</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
@@ -1252,15 +1252,15 @@
         <v>5</v>
       </c>
       <c r="M8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
-      </c>
-      <c r="B9" t="s">
-        <v>64</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -1269,13 +1269,13 @@
         <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>3780</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
         <v>19</v>
@@ -1287,36 +1287,36 @@
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9">
         <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
         <v>68</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>69</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
         <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
       </c>
       <c r="F10">
         <v>3650</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H10" t="s">
         <v>19</v>
@@ -1325,7 +1325,7 @@
         <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
         <v>20</v>
@@ -1334,56 +1334,56 @@
         <v>6</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
         <v>75</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
       </c>
       <c r="F11">
         <v>3980</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
         <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J11" t="s">
         <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L11">
         <v>3</v>
       </c>
       <c r="M11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
         <v>79</v>
-      </c>
-      <c r="B12" t="s">
-        <v>80</v>
       </c>
       <c r="C12" t="s">
         <v>26</v>
@@ -1392,54 +1392,54 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>3720</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
         <v>35</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J12" t="s">
         <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L12">
         <v>5</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>87</v>
       </c>
       <c r="F13">
         <v>3850</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
@@ -1448,7 +1448,7 @@
         <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s">
         <v>20</v>
@@ -1457,15 +1457,15 @@
         <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" t="s">
         <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
@@ -1474,22 +1474,22 @@
         <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <v>3900</v>
       </c>
       <c r="G14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s">
         <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s">
         <v>20</v>
@@ -1498,15 +1498,15 @@
         <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" t="s">
         <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>97</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -1515,13 +1515,13 @@
         <v>16</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>3770</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
@@ -1533,77 +1533,77 @@
         <v>29</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L15">
         <v>3</v>
       </c>
       <c r="M15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>102</v>
       </c>
       <c r="F16">
         <v>4200</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L16">
         <v>5</v>
       </c>
       <c r="M16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
         <v>104</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
         <v>105</v>
-      </c>
-      <c r="C17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>106</v>
       </c>
       <c r="F17">
         <v>3680</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
@@ -1612,7 +1612,7 @@
         <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s">
         <v>20</v>
@@ -1621,15 +1621,15 @@
         <v>4</v>
       </c>
       <c r="M17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" t="s">
         <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
@@ -1638,22 +1638,22 @@
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18">
         <v>3810</v>
       </c>
       <c r="G18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H18" t="s">
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s">
         <v>20</v>
@@ -1667,10 +1667,10 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
         <v>114</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1679,60 +1679,60 @@
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19">
         <v>4050</v>
       </c>
       <c r="G19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H19" t="s">
         <v>35</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L19">
         <v>3</v>
       </c>
       <c r="M19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
         <v>119</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
         <v>120</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>121</v>
       </c>
       <c r="F20">
         <v>4150</v>
       </c>
       <c r="G20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H20" t="s">
         <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20" t="s">
         <v>21</v>
@@ -1744,30 +1744,30 @@
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
         <v>123</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
         <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s">
-        <v>125</v>
       </c>
       <c r="F21">
         <v>3700</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H21" t="s">
         <v>19</v>
@@ -1785,7 +1785,7 @@
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
